--- a/CHECK LIST.xlsx
+++ b/CHECK LIST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Quantitative-trading-project\[2025] ComplexTradingBotCryptoRefactor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\complex-trading-crypto-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A69FB7-2AD0-490A-A41B-6070F7CF8138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEC9B08-EF51-490E-98E3-677DCBD521BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>signals_transformer.py</t>
   </si>
@@ -143,15 +143,6 @@
     <t>signals_cnn_lstm_attention__main__.py</t>
   </si>
   <si>
-    <t>signals_best_performance_pairs.py</t>
-  </si>
-  <si>
-    <t>signals_best_performance_pairs__unittest__.py</t>
-  </si>
-  <si>
-    <t>signals_best_performance_pairs__main__.py</t>
-  </si>
-  <si>
     <t>signals_hmm.py</t>
   </si>
   <si>
@@ -164,31 +155,52 @@
     <t>signals_hmm__main__.py</t>
   </si>
   <si>
-    <t>best_performance_pairs__class__performance_analyzer.py</t>
-  </si>
-  <si>
-    <t>best_performance_pairs__class__performance_analyzer__unittest__.py</t>
-  </si>
-  <si>
     <t>_logger.py</t>
   </si>
   <si>
-    <t>LSTM__class__feed_foward.py</t>
-  </si>
-  <si>
-    <t>LSTM__class__feed_foward__unittest__.py</t>
-  </si>
-  <si>
-    <t>LSTM__class__focal_loss.py</t>
-  </si>
-  <si>
-    <t>LSTM__class__grid_search_threshold_optimizer.py</t>
-  </si>
-  <si>
     <t>LÀM NGẮN GỌN IMPORT OS</t>
   </si>
   <si>
-    <t>LSTM__class__models.py</t>
+    <t>LSTM__class__FeedForward.py</t>
+  </si>
+  <si>
+    <t>LSTM__class__FeedForward__unittest__.py</t>
+  </si>
+  <si>
+    <t>LSTM__class__FocalLoss.py</t>
+  </si>
+  <si>
+    <t>LSTM__class__GridSearchThresholdOptimizer.py</t>
+  </si>
+  <si>
+    <t>LSTM__class__Models.py</t>
+  </si>
+  <si>
+    <t>signals_best_performance_symbols.py</t>
+  </si>
+  <si>
+    <t>signals_best_performance_symbols__unittest__.py</t>
+  </si>
+  <si>
+    <t>signals_best_performance_symbols__main__.py</t>
+  </si>
+  <si>
+    <t>BPSs__class__PerformanceAnalyzer__unittest__.py</t>
+  </si>
+  <si>
+    <t>BPSs__class__PerformanceAnalyzer.py</t>
+  </si>
+  <si>
+    <t>LSTM__class__FocalLoss__unittest__.py</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>LSTM__class__MultiheadAttention.py</t>
   </si>
 </sst>
 </file>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,10 +778,10 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,7 +924,7 @@
     </row>
     <row r="29" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>2</v>
@@ -924,7 +936,7 @@
     </row>
     <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E30" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>2</v>
@@ -932,18 +944,23 @@
     </row>
     <row r="31" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E31" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="12"/>
+      <c r="E32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E33" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>2</v>
@@ -951,23 +968,40 @@
     </row>
     <row r="34" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E34" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E39" s="12"/>
@@ -990,97 +1024,100 @@
     <row r="45" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E45" s="12"/>
     </row>
-    <row r="46" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="13" t="str">
+    <row r="47" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="13" t="str">
         <f>D28</f>
         <v>logging level DEBUG</v>
       </c>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E51" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="E52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f>D48</f>
+        <v>logging level DEBUG</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="str">
-        <f>D47</f>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f>D53</f>
         <v>logging level DEBUG</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="str">
-        <f>D52</f>
-        <v>logging level DEBUG</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="2" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/CHECK LIST.xlsx
+++ b/CHECK LIST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\complex-trading-crypto-bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGUYEN QUANG THANG\complex-trading-crypto-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73DFA93-9E2A-4A47-AFF5-2577F6F5ADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A180A9E-A558-421C-B789-43D2EB11DCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>signals_transformer.py</t>
   </si>
@@ -252,13 +252,16 @@
   </si>
   <si>
     <t>_process_signals_transformer.py</t>
+  </si>
+  <si>
+    <t>BỔ SUNG TESTCASE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +281,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -386,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -424,6 +439,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +902,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -897,6 +913,9 @@
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -980,7 +999,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -991,6 +1010,9 @@
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,11 +1058,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>2</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>42</v>

--- a/CHECK LIST.xlsx
+++ b/CHECK LIST.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGUYEN QUANG THANG\complex-trading-crypto-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A180A9E-A558-421C-B789-43D2EB11DCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F906F9DA-D091-4449-A1DF-612F6CAFE002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11640" yWindow="-4305" windowWidth="11760" windowHeight="20010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PEP8" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
   <si>
     <t>signals_transformer.py</t>
   </si>
@@ -255,6 +256,9 @@
   </si>
   <si>
     <t>BỔ SUNG TESTCASE</t>
+  </si>
+  <si>
+    <t>trading_signal_analyzer.py  9.67/10 - update logger (OLD)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +292,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -401,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -440,6 +450,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1422,4 +1434,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED6F0D0-95B0-4B5E-93F0-15A8B7D8AAF0}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>